--- a/biology/Mycologie/Cryphonectria/Cryphonectria.xlsx
+++ b/biology/Mycologie/Cryphonectria/Cryphonectria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryphonectria est un genre de champignons ascomycètes de la famille des Cryphonectriaceae. 
 Ce genre comprend plusieurs espèces de champignons parasites phytopathogène, dont la plus connue et la plus étudiée est Cryphonectria parasitica, responsable du chancre de l'écorce des châtaigniers.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cryphonectria dérive du grec cryptos, « caché », et nêktos, « qui nage », allusion aux spores microscopiques de ce champignon qui se développent grâce au ruissellement de la rosée ou de la pluie le long des tiges et des troncs qui les entraîne sur toute la plante[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cryphonectria dérive du grec cryptos, « caché », et nêktos, « qui nage », allusion aux spores microscopiques de ce champignon qui se développent grâce au ruissellement de la rosée ou de la pluie le long des tiges et des troncs qui les entraîne sur toute la plante.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (13 octobre 2015)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (13 octobre 2015) :
 Cryphonectria abscondita (Sacc.) Sacc. 1905
 Cryphonectria acaciarum Speg. 1909
 Cryphonectria decipiens Gryzenh. &amp; M.J. Wingf. 2009
@@ -557,7 +573,7 @@
 Cryphonectria parasitica (Murrill) M.E. Barr 1978
 Cryphonectria radicalis (Schwein.) M.E. Barr 1978
 Cryphonectria variicolor (Fuckel) Sacc. 1905
-Selon Index Fungorum                                      (13 octobre 2015)[4] :
+Selon Index Fungorum                                      (13 octobre 2015) :
 Cryphonectria abscondita (Sacc.) Sacc. &amp; D. Sacc. 1905
 Cryphonectria acaciarum Speg. 1909
 Cryphonectria decipiens Gryzenh. &amp; M.J. Wingf. 2009
